--- a/public/excel/IMPORT DATA MAHASISWA STIMIK.xlsx
+++ b/public/excel/IMPORT DATA MAHASISWA STIMIK.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arief\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\development\web dev\siakad\public\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A02E6B-7B5D-41EA-BD20-F3F8B583B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F245C0-82E6-4DA8-BD0D-94333CAE3D08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{ADDAE51B-1FD6-4884-A4D4-EC291FF573DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="86">
   <si>
     <t>NAMA</t>
   </si>
@@ -291,6 +291,9 @@
   </si>
   <si>
     <t>TRANSFER</t>
+  </si>
+  <si>
+    <t>SEMESTER BERJALAN</t>
   </si>
 </sst>
 </file>
@@ -347,13 +350,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +679,7 @@
   <dimension ref="B1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -685,42 +691,46 @@
     <col min="6" max="6" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5546875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="L2" t="s">
         <v>2</v>
@@ -751,6 +761,9 @@
       <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
       <c r="L3" t="s">
         <v>8</v>
       </c>
@@ -780,6 +793,9 @@
       <c r="H4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
       <c r="L4" t="s">
         <v>9</v>
       </c>
@@ -809,6 +825,9 @@
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
       <c r="M5" t="s">
         <v>13</v>
       </c>
@@ -835,6 +854,9 @@
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
@@ -858,6 +880,9 @@
       <c r="H7" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
@@ -881,6 +906,9 @@
       <c r="H8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I8" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
@@ -904,6 +932,9 @@
       <c r="H9" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I9" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
@@ -927,6 +958,9 @@
       <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
@@ -950,6 +984,9 @@
       <c r="H11" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -973,6 +1010,9 @@
       <c r="H12" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
@@ -996,6 +1036,9 @@
       <c r="H13" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
@@ -1019,6 +1062,9 @@
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I14" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2" t="s">
@@ -1042,6 +1088,9 @@
       <c r="H15" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="I15" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
@@ -1065,8 +1114,11 @@
       <c r="H16" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
@@ -1088,8 +1140,11 @@
       <c r="H17" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -1111,8 +1166,11 @@
       <c r="H18" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
         <v>30</v>
       </c>
@@ -1134,8 +1192,11 @@
       <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
@@ -1157,8 +1218,11 @@
       <c r="H20" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
@@ -1180,8 +1244,11 @@
       <c r="H21" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
@@ -1203,8 +1270,11 @@
       <c r="H22" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
         <v>34</v>
       </c>
@@ -1226,8 +1296,11 @@
       <c r="H23" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
         <v>35</v>
       </c>
@@ -1249,8 +1322,11 @@
       <c r="H24" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
@@ -1272,8 +1348,11 @@
       <c r="H25" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
@@ -1295,8 +1374,11 @@
       <c r="H26" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
@@ -1318,8 +1400,11 @@
       <c r="H27" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="2" t="s">
         <v>39</v>
       </c>
@@ -1341,8 +1426,11 @@
       <c r="H28" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
         <v>40</v>
       </c>
@@ -1364,8 +1452,11 @@
       <c r="H29" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
@@ -1387,8 +1478,11 @@
       <c r="H30" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1410,8 +1504,11 @@
       <c r="H31" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
@@ -1432,6 +1529,9 @@
       </c>
       <c r="H32" s="2" t="s">
         <v>13</v>
+      </c>
+      <c r="I32" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
